--- a/Testdata/Non_Oncology/Templates/ImportPublications/File_with_ValidData.xlsx
+++ b/Testdata/Non_Oncology/Templates/ImportPublications/File_with_ValidData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Cytel\Templates\Non-Oncology\Test Environment\Test_NonOncology_Automation_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\Templates\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EEAA88-B893-4948-A93C-C0CC43E9A00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC3E850-B471-486E-88B5-1987CDAF3C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6165" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6168" uniqueCount="759">
   <si>
     <t>SLR Type</t>
   </si>
@@ -2447,6 +2447,18 @@
   </si>
   <si>
     <t>Population filter 2</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Test12</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>Automation</t>
   </si>
 </sst>
 </file>
@@ -3914,9 +3926,9 @@
   </sheetPr>
   <dimension ref="A1:IE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5:Q5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -12805,7 +12817,7 @@
         <v>25.9</v>
       </c>
       <c r="BK15" s="110" t="s">
-        <v>588</v>
+        <v>755</v>
       </c>
       <c r="BL15" s="110" t="s">
         <v>600</v>
@@ -13526,7 +13538,7 @@
         <v>25.9</v>
       </c>
       <c r="BK16" s="110" t="s">
-        <v>588</v>
+        <v>755</v>
       </c>
       <c r="BL16" s="110" t="s">
         <v>600</v>
@@ -14246,8 +14258,8 @@
       <c r="BJ17" s="106" t="s">
         <v>618</v>
       </c>
-      <c r="BK17" s="106" t="s">
-        <v>618</v>
+      <c r="BK17" s="110" t="s">
+        <v>755</v>
       </c>
       <c r="BL17" s="110" t="s">
         <v>600</v>
@@ -21549,8 +21561,8 @@
       <c r="CO27" s="110">
         <v>3.1</v>
       </c>
-      <c r="CP27" s="106">
-        <v>0.05</v>
+      <c r="CP27" s="106" t="s">
+        <v>758</v>
       </c>
       <c r="CQ27" s="110" t="s">
         <v>600</v>
@@ -22271,7 +22283,7 @@
         <v>618</v>
       </c>
       <c r="CP28" s="106" t="s">
-        <v>618</v>
+        <v>758</v>
       </c>
       <c r="CQ28" s="110" t="s">
         <v>600</v>
@@ -24502,8 +24514,8 @@
       <c r="DL31" s="110">
         <v>0.88</v>
       </c>
-      <c r="DM31" s="106">
-        <v>3.0000000000000001E-3</v>
+      <c r="DM31" s="106" t="s">
+        <v>756</v>
       </c>
       <c r="DN31" s="110" t="s">
         <v>600</v>
@@ -25223,8 +25235,8 @@
       <c r="DL32" s="110">
         <v>0.88</v>
       </c>
-      <c r="DM32" s="106">
-        <v>3.0000000000000001E-3</v>
+      <c r="DM32" s="106" t="s">
+        <v>756</v>
       </c>
       <c r="DN32" s="110" t="s">
         <v>600</v>
@@ -25945,7 +25957,7 @@
         <v>618</v>
       </c>
       <c r="DM33" s="106" t="s">
-        <v>618</v>
+        <v>757</v>
       </c>
       <c r="DN33" s="110" t="s">
         <v>600</v>
@@ -26343,21 +26355,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26598,21 +26601,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26637,9 +26646,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>